--- a/public/reports/2020-09-01-2020-09-01-rasp-Группа 92.xlsx
+++ b/public/reports/2020-09-01-2020-09-01-rasp-Группа 92.xlsx
@@ -15,18 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
-  <si>
-    <t>Расписание занятий</t>
-  </si>
-  <si>
-    <t>Дата:</t>
-  </si>
-  <si>
-    <t>Группа 92</t>
-  </si>
-  <si>
-    <t>Группа:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+  <si>
+    <t>Расписание занятий: Группа 92</t>
+  </si>
+  <si>
+    <t>УТВЕРЖДАЮ
+Проректор Приволжского института повышения квалификации ФНС России
+_____________ И.В.Кожанова 
+«____» _____________ 2020 г.</t>
+  </si>
+  <si>
+    <t>группа</t>
+  </si>
+  <si>
+    <t>20.01.2020 – 20.02.2020</t>
+  </si>
+  <si>
+    <t>Формирование доказательственной базы при выявлении нарушений пределов осуществления прав по исчислению налоговой базы и (или) суммы налога, сбора, страховых взносов (Ведущая: руководители, специалисты)</t>
+  </si>
+  <si>
+    <t>01.09.2020 — 20.09.2020</t>
   </si>
   <si>
     <t>Дата</t>
@@ -35,33 +44,170 @@
     <t>Время</t>
   </si>
   <si>
-    <t>Тема занятия</t>
-  </si>
-  <si>
-    <t>Вид занятия</t>
-  </si>
-  <si>
-    <t>Аудитория</t>
+    <t>Тема</t>
+  </si>
+  <si>
+    <t>Ауд.</t>
   </si>
   <si>
     <t>Преподаватель</t>
   </si>
   <si>
-    <t>03.09.2020</t>
-  </si>
-  <si>
-    <t>08:00
-12:00</t>
+    <t>09.09.2020</t>
+  </si>
+  <si>
+    <t>13:20
+16:40</t>
+  </si>
+  <si>
+    <t>Налоговые правонарушения. Порядок привлечения к налоговой ответственности.</t>
+  </si>
+  <si>
+    <t>2004
+практика
+4 ч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дулина А.В.
+</t>
+  </si>
+  <si>
+    <t>10.09.2020</t>
+  </si>
+  <si>
+    <t>09:00
+12:20</t>
+  </si>
+  <si>
+    <t>Основы формирования доказательственной базы при выявлении  агрессивного налогового планирования (схем) в соответствии со статьей 54.1 НК РФ</t>
+  </si>
+  <si>
+    <t>2003
+лекция
+4 ч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вачугов И.В.
+</t>
   </si>
   <si>
     <t>Прибыль. Налогоплательщики. Объект налогообложения, налоговый период, ставки. Налоговая база, доходы от реализации и внереализационные доходы.</t>
   </si>
   <si>
-    <t>лекция
+    <t>2004
+лекция
 4 ч</t>
   </si>
   <si>
-    <t>admin</t>
+    <t xml:space="preserve">Чаадаева О.В.
+</t>
+  </si>
+  <si>
+    <t>11.09.2020</t>
+  </si>
+  <si>
+    <t>Тренинг эффективного взаимодействия с налогоплательщиками. Этика поведения и делового общения.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Широкова А.Ш.
+</t>
+  </si>
+  <si>
+    <t>Прибыль. Расходы организации. Порядок признания убытков. Порядок формирования резервов. Контролируемые иностранные компании</t>
+  </si>
+  <si>
+    <t>14.09.2020</t>
+  </si>
+  <si>
+    <t>Актуальные вопросы налоговой политики и совершенствования налогового законодательства Российской Федерации</t>
+  </si>
+  <si>
+    <t>2005
+лекция
+4 ч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лобанов Г.В.
+</t>
+  </si>
+  <si>
+    <t>Доказывание схем оптимизация налогообложения по налогу на прибыль организаций. Контролируемая задолженность.</t>
+  </si>
+  <si>
+    <t>2005
+практика
+4 ч</t>
+  </si>
+  <si>
+    <t>15.09.2020</t>
+  </si>
+  <si>
+    <t>Административные правонарушения. Производство по делам об административных правонарушениях.</t>
+  </si>
+  <si>
+    <t>Налоговая оптимизация и налоговые риски</t>
+  </si>
+  <si>
+    <t>Ауд. (1 эт.)
+лекция
+4 ч</t>
+  </si>
+  <si>
+    <t>16.09.2020</t>
+  </si>
+  <si>
+    <t>Использование возможностей MS Exсel в аналитической работе налоговых органов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рябинина Е.В.
+</t>
+  </si>
+  <si>
+    <t>Доказывание взаимозависимости лиц для целей налогообложения</t>
+  </si>
+  <si>
+    <t>2011
+практика
+4 ч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дулина А.В.
+Сдельников А.В.
+</t>
+  </si>
+  <si>
+    <t>17.09.2020</t>
+  </si>
+  <si>
+    <t>Цифровые инструменты налогового администрирования</t>
+  </si>
+  <si>
+    <t>Мероприятия налогового контроля: особенности проведения и оформления</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Терентьева Г.А.
+</t>
+  </si>
+  <si>
+    <t>18.09.2020</t>
+  </si>
+  <si>
+    <t>Переквалификация и оспаривание сделок. Доказывание схемы возмещения НДС  в условиях договоров комиссии</t>
+  </si>
+  <si>
+    <t>Начальник отдела ДПО и ОУ</t>
+  </si>
+  <si>
+    <t>______________</t>
+  </si>
+  <si>
+    <t>Левенец Л.В.</t>
+  </si>
+  <si>
+    <t>Специалист отдела ДПО и ОУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разработка! </t>
   </si>
 </sst>
 </file>
@@ -69,7 +215,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -84,7 +230,16 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="15"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -93,7 +248,16 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -115,46 +279,15 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border/>
     <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
+      <top style="double">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
+      <top style="dotted">
         <color rgb="FF000000"/>
       </top>
     </border>
@@ -162,57 +295,129 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="41">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="14" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="20" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="14" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="20" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="14" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,108 +718,493 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A19" sqref="A19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.7109375" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="true" style="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="true" style="1"/>
-    <col min="3" max="3" width="53" customWidth="true" style="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="true" style="3"/>
-    <col min="5" max="5" width="11" customWidth="true" style="3"/>
-    <col min="6" max="6" width="15.42578125" customWidth="true" style="3"/>
+    <col min="1" max="1" width="11.42578125" customWidth="true" style="8"/>
+    <col min="2" max="2" width="7.85546875" customWidth="true" style="8"/>
+    <col min="3" max="3" width="45.42578125" customWidth="true" style="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="true" style="12"/>
+    <col min="5" max="5" width="13.42578125" customWidth="true" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customHeight="1" ht="25.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" customHeight="1" ht="43.5">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" customHeight="1" ht="26.1">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:5" customHeight="1" ht="26.1">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" customHeight="1" ht="21.6">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" customHeight="1" ht="39.6">
-      <c r="A5" s="5" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" spans="1:5" customHeight="1" ht="21.6">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" spans="1:5" customHeight="1" ht="39.6">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" customHeight="1" ht="41.85">
-      <c r="A6" s="14" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14" t="s">
+    </row>
+    <row r="6" spans="1:5" customHeight="1" ht="75">
+      <c r="A6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="16">
-        <v>2002</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="D6" s="37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" customHeight="1" ht="41.85">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" customHeight="1" ht="41.85">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" customHeight="1" ht="41.85">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="E6" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" customHeight="1" ht="75">
+      <c r="A7" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" customHeight="1" ht="75">
+      <c r="A8" s="16"/>
+      <c r="B8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" customHeight="1" ht="75">
+      <c r="A9" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" customHeight="1" ht="75">
+      <c r="A10" s="16"/>
+      <c r="B10" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" customHeight="1" ht="75">
+      <c r="A11" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" customHeight="1" ht="75">
+      <c r="A12" s="16"/>
+      <c r="B12" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" customHeight="1" ht="75">
+      <c r="A13" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" customHeight="1" ht="75">
+      <c r="A14" s="16"/>
+      <c r="B14" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" customHeight="1" ht="75">
+      <c r="A15" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" customHeight="1" ht="75">
+      <c r="A16" s="16"/>
+      <c r="B16" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" customHeight="1" ht="75">
+      <c r="A17" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" customHeight="1" ht="75">
+      <c r="A18" s="16"/>
+      <c r="B18" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" customHeight="1" ht="75">
+      <c r="A19" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" customHeight="1" ht="15.75">
+      <c r="A20" s="28"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:5" customHeight="1" ht="15.75">
+      <c r="A21" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" customHeight="1" ht="15.75">
+      <c r="A22" s="28"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:5" customHeight="1" ht="15.75">
+      <c r="A23" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" customHeight="1" ht="15.75">
+      <c r="A24" s="28"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+    </row>
+    <row r="25" spans="1:5" customHeight="1" ht="15.75">
+      <c r="A25" s="28"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="23"/>
+    </row>
+    <row r="26" spans="1:5" customHeight="1" ht="24">
+      <c r="A26" s="29"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" customHeight="1" ht="24">
+      <c r="A27" s="21"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="11"/>
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="20"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="30"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="11"/>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="11"/>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="11"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="11"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="11"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="11"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="11"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="11"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="11"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="11"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="11"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="11"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="11"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="11"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="11"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="11"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="11"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="11"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="11"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="11"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="11"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="11"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="11"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="11"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="11"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="11"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="11"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="11"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="11"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="11"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="11"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="11"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="D1:E4"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555" footer="0.51180555555555"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>

--- a/public/reports/2020-09-01-2020-09-01-rasp-Группа 92.xlsx
+++ b/public/reports/2020-09-01-2020-09-01-rasp-Группа 92.xlsx
@@ -26,7 +26,7 @@
 «____» _____________ 2020 г.</t>
   </si>
   <si>
-    <t>группа</t>
+    <t>Период:</t>
   </si>
   <si>
     <t>20.01.2020 – 20.02.2020</t>
@@ -399,7 +399,7 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="20" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
